--- a/dit_factors/dit_courses_old.xlsx
+++ b/dit_factors/dit_courses_old.xlsx
@@ -169,10 +169,10 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.51171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.51953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -214,7 +214,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>1</v>
